--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\CS3510_Minesweeper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE2BCE81-376B-4573-9B5B-5C9BFF4FE0E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBC8D5B-B541-4B0E-BFE7-D3BE86EE8984}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1EA08399-7565-449A-BC9E-648C2AA94BC4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
   <si>
     <t>Grid Area</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>AI 1</t>
+  </si>
+  <si>
+    <t>Runtime</t>
   </si>
 </sst>
 </file>
@@ -413,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F1CA51C-8B34-4564-865C-2CED850BA712}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -424,15 +427,18 @@
     <col min="1" max="1" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -445,216 +451,352 @@
       <c r="E2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>100</v>
       </c>
       <c r="B3">
-        <v>3.2899999999999999E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="D3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <f>49.4/G3</f>
+        <v>0.49399999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>200</v>
       </c>
       <c r="B4">
-        <v>0.14599999999999999</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="D4">
         <v>200</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>200</v>
+      </c>
+      <c r="H4">
+        <v>109.55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>300</v>
       </c>
       <c r="B5">
-        <v>0.34</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="D5">
         <v>300</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>300</v>
+      </c>
+      <c r="H5">
+        <v>175.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>400</v>
       </c>
       <c r="B6">
-        <v>0.70299999999999996</v>
+        <v>0.67900000000000005</v>
       </c>
       <c r="D6">
         <v>400</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>400</v>
+      </c>
+      <c r="H6">
+        <v>240.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>500</v>
       </c>
       <c r="B7">
-        <v>1.17</v>
+        <v>1.1539999999999999</v>
       </c>
       <c r="D7">
         <v>500</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <v>500</v>
+      </c>
+      <c r="H7">
+        <v>315.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>600</v>
       </c>
       <c r="B8">
-        <v>1.8360000000000001</v>
+        <v>1.7230000000000001</v>
       </c>
       <c r="D8">
         <v>600</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <v>600</v>
+      </c>
+      <c r="H8">
+        <v>378.45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>700</v>
       </c>
       <c r="B9">
-        <v>2.7160000000000002</v>
+        <v>2.4220000000000002</v>
       </c>
       <c r="D9">
         <v>700</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <v>700</v>
+      </c>
+      <c r="H9">
+        <v>428.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>800</v>
       </c>
       <c r="B10">
-        <v>3.694</v>
+        <v>3.3626999999999998</v>
       </c>
       <c r="D10">
         <v>800</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <v>800</v>
+      </c>
+      <c r="H10">
+        <v>512.15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>900</v>
       </c>
       <c r="B11">
-        <v>4.4859999999999998</v>
+        <v>4.5490000000000004</v>
       </c>
       <c r="D11">
         <v>900</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <v>900</v>
+      </c>
+      <c r="H11">
+        <v>586.54999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1000</v>
       </c>
       <c r="B12">
-        <v>5.8890000000000002</v>
+        <v>5.8250000000000002</v>
       </c>
       <c r="D12">
         <v>1000</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G12">
+        <v>1000</v>
+      </c>
+      <c r="H12">
+        <v>651.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>0.02</v>
       </c>
       <c r="B17">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G17" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="H17">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>0.04</v>
       </c>
       <c r="B18">
         <v>0.3735</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G18" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="H18">
+        <v>0.3735</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>0.06</v>
       </c>
       <c r="B19">
         <v>0.40400000000000003</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G19" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="H19">
+        <v>0.40400000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>0.08</v>
       </c>
       <c r="B20">
         <v>0.45900000000000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G20" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="H20">
+        <v>0.45900000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>0.1</v>
       </c>
       <c r="B21">
         <v>0.55449999999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G21" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H21">
+        <v>0.55449999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>0.12</v>
       </c>
       <c r="B22">
         <v>0.58589999999999998</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G22" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="H22">
+        <v>0.58589999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>0.14000000000000001</v>
       </c>
       <c r="B23">
         <v>0.61950000000000005</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G23" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H23">
+        <v>0.61950000000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>0.16</v>
       </c>
       <c r="B24">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G24" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H24">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>0.18</v>
       </c>
       <c r="B25">
         <v>0.69799999999999995</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G25" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="H25">
+        <v>0.69799999999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>0.2</v>
       </c>
       <c r="B26">
         <v>0.67300000000000004</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G26" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H26">
+        <v>0.67300000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>7</v>
       </c>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\CS3510_Minesweeper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeYe\Documents\CS3510_Minesweeper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBC8D5B-B541-4B0E-BFE7-D3BE86EE8984}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43257CB3-141B-460D-8842-4BED5DB8331B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1EA08399-7565-449A-BC9E-648C2AA94BC4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1EA08399-7565-449A-BC9E-648C2AA94BC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
   <si>
     <t>Grid Area</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Runtime</t>
+  </si>
+  <si>
+    <t>AI 2</t>
   </si>
 </sst>
 </file>
@@ -416,18 +419,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F1CA51C-8B34-4564-865C-2CED850BA712}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -437,8 +440,11 @@
       <c r="G1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -457,8 +463,14 @@
       <c r="H2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>100</v>
       </c>
@@ -475,8 +487,11 @@
         <f>49.4/G3</f>
         <v>0.49399999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>200</v>
       </c>
@@ -492,8 +507,11 @@
       <c r="H4">
         <v>109.55</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>300</v>
       </c>
@@ -509,8 +527,11 @@
       <c r="H5">
         <v>175.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>400</v>
       </c>
@@ -526,8 +547,11 @@
       <c r="H6">
         <v>240.75</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>500</v>
       </c>
@@ -543,8 +567,11 @@
       <c r="H7">
         <v>315.25</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>600</v>
       </c>
@@ -560,8 +587,11 @@
       <c r="H8">
         <v>378.45</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J8">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>700</v>
       </c>
@@ -577,8 +607,11 @@
       <c r="H9">
         <v>428.75</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J9">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>800</v>
       </c>
@@ -594,8 +627,11 @@
       <c r="H10">
         <v>512.15</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J10">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>900</v>
       </c>
@@ -611,8 +647,11 @@
       <c r="H11">
         <v>586.54999999999995</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J11">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1000</v>
       </c>
@@ -628,175 +667,256 @@
       <c r="H12">
         <v>651.1</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
       <c r="G15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
       <c r="G16" t="s">
         <v>5</v>
       </c>
       <c r="H16" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0.02</v>
       </c>
       <c r="B17">
-        <v>0.23</v>
+        <v>0.24729999999999999</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.02</v>
       </c>
       <c r="G17" s="1">
         <v>0.02</v>
       </c>
       <c r="H17">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0.04</v>
       </c>
       <c r="B18">
-        <v>0.3735</v>
+        <v>0.309</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.04</v>
       </c>
       <c r="G18" s="1">
         <v>0.04</v>
       </c>
       <c r="H18">
-        <v>0.3735</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0.06</v>
       </c>
       <c r="B19">
-        <v>0.40400000000000003</v>
+        <v>0.41766999999999999</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.06</v>
       </c>
       <c r="G19" s="1">
         <v>0.06</v>
       </c>
       <c r="H19">
-        <v>0.40400000000000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>0.08</v>
       </c>
       <c r="B20">
-        <v>0.45900000000000002</v>
+        <v>0.49</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.08</v>
       </c>
       <c r="G20" s="1">
         <v>0.08</v>
       </c>
       <c r="H20">
-        <v>0.45900000000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>0.1</v>
       </c>
       <c r="B21">
-        <v>0.55449999999999999</v>
+        <v>0.54</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.1</v>
       </c>
       <c r="G21" s="1">
         <v>0.1</v>
       </c>
       <c r="H21">
-        <v>0.55449999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>0.12</v>
       </c>
       <c r="B22">
-        <v>0.58589999999999998</v>
+        <v>0.55830000000000002</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.12</v>
       </c>
       <c r="G22" s="1">
         <v>0.12</v>
       </c>
       <c r="H22">
-        <v>0.58589999999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.05</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>0.14000000000000001</v>
       </c>
       <c r="B23">
-        <v>0.61950000000000005</v>
+        <v>0.61529999999999996</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.14000000000000001</v>
       </c>
       <c r="G23" s="1">
         <v>0.14000000000000001</v>
       </c>
       <c r="H23">
-        <v>0.61950000000000005</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>0.16</v>
       </c>
       <c r="B24">
-        <v>0.66</v>
+        <v>0.61829999999999996</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.16</v>
       </c>
       <c r="G24" s="1">
         <v>0.16</v>
       </c>
       <c r="H24">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>0.18</v>
       </c>
       <c r="B25">
-        <v>0.69799999999999995</v>
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.18</v>
       </c>
       <c r="G25" s="1">
         <v>0.18</v>
       </c>
       <c r="H25">
-        <v>0.69799999999999995</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>0.2</v>
       </c>
       <c r="B26">
-        <v>0.67300000000000004</v>
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.2</v>
       </c>
       <c r="G26" s="1">
         <v>0.2</v>
       </c>
       <c r="H26">
-        <v>0.67300000000000004</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>7</v>
       </c>
